--- a/docs/assets/disciplinas/LOB1045.xlsx
+++ b/docs/assets/disciplinas/LOB1045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar ao aluno o conhecimento dos gêneros por meio dos quais ele deverá agir linguisticamente no espaço acadêmico (Objetivo Geral); 2. Ler e redigir resumos acadêmicos e relatórios de pesquisa experimental, além de reconhecer as características de uma resenha (Objetivo Específico); 3. Dominar técnicas de escrita adequadas aos gêneros acadêmicos (Objetivo Específico).</t>
+    <t>5840514 - Graziela Zamponi</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840514 - Graziela Zamponi</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>O texto escrito da esfera acadêmica. Gêneros acadêmicos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,16 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. O texto escrito na esfera acadêmica
-    Aspectos constitutivos do texto escrito
-    Fatores de legibilidade
-    Coesão
-2. Gêneros acadêmicos
-    Noções de gêneros. Gêneros acadêmicos
-    Resumo e resenha
-    Relatório de pesquisa experimental</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -111,38 +98,26 @@
   </si>
   <si>
     <t>Método:</t>
+  </si>
+  <si>
+    <t>Critério:</t>
   </si>
   <si>
     <t>N 1  = Prova= 10,0
 N 2 = 1ª NP + 2ª NP  (ver abaixo)</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>1ª Nota Parcial - Resumo= 5,0
 2ª Nota Parcial - Relatório=5,0 NOTA FINAL = N1 + N2/ 2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma recuperação, por meio de uma prova.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. FARACO, Carlos Alberto; TEZZA, Cristóvão. Oficina de texto.  6 ed. Petrópolis: Vozes, 2008.
-2. ILARI, Rodolfo.  Introdução à Semântica: brincando com a gramática.  São Paulo: Contexto, 2001.
-3. ______.  Introdução ao estudo do léxico: brincando com as palavras.  São Paulo: Contexto, 2002.
-4. KLEIMAN, Ângela. Texto e leitor: aspectos cognitivos da leitura. 4.ed.  Campinas: Pontes, 1995.
-5. KOCH, Ingedore Villaça.  A coesão textual.  São Paulo: Contexto, 2001.
-6. LIBERATO, Yara; FULGÊNCIO, Lúcia.   É possível facilitar a leitura: um guia para escrever claro.  São Paulo: Contexto, 2007.
-7. MACHADO, A.R (coord.); LOUSADA, E.; ABREU-TARDELLI, L. S.  Resumo.  São Paulo: Parábola Editorial, 2004.
-8. ______.   Resenha.  São Paulo: Parábola Editorial, 2004.
-9. MARCUSCHI, Luiz Antônio.  Da fala para a escrita: atividades de retextualização.  São Paulo: Cortez, 2000.
-10. SERAFINI, Maria José.    Como escrever textos. 5.ed. São Paulo: Globo, 1992.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,93 +598,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1045.xlsx
+++ b/docs/assets/disciplinas/LOB1045.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar ao aluno o conhecimento dos gêneros por meio dos quais ele deverá agir linguisticamente no espaço acadêmico (Objetivo Geral); 2. Ler e redigir resumos acadêmicos e relatórios de pesquisa experimental, além de reconhecer as características de uma resenha (Objetivo Específico); 3. Dominar técnicas de escrita adequadas aos gêneros acadêmicos (Objetivo Específico).</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840514 - Graziela Zamponi</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>O texto escrito da esfera acadêmica. Gêneros acadêmicos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,16 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. O texto escrito na esfera acadêmica
+    Aspectos constitutivos do texto escrito
+    Fatores de legibilidade
+    Coesão
+2. Gêneros acadêmicos
+    Noções de gêneros. Gêneros acadêmicos
+    Resumo e resenha
+    Relatório de pesquisa experimental</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -98,26 +111,38 @@
   </si>
   <si>
     <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>N 1  = Prova= 10,0
 N 2 = 1ª NP + 2ª NP  (ver abaixo)</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>1ª Nota Parcial - Resumo= 5,0
 2ª Nota Parcial - Relatório=5,0 NOTA FINAL = N1 + N2/ 2</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma recuperação, por meio de uma prova.</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Ao aluno que não alcançar a média 5,0 (cinco) no final do período letivo será dada uma recuperação, por meio de uma prova.</t>
+    <t>1. FARACO, Carlos Alberto; TEZZA, Cristóvão. Oficina de texto.  6 ed. Petrópolis: Vozes, 2008.
+2. ILARI, Rodolfo.  Introdução à Semântica: brincando com a gramática.  São Paulo: Contexto, 2001.
+3. ______.  Introdução ao estudo do léxico: brincando com as palavras.  São Paulo: Contexto, 2002.
+4. KLEIMAN, Ângela. Texto e leitor: aspectos cognitivos da leitura. 4.ed.  Campinas: Pontes, 1995.
+5. KOCH, Ingedore Villaça.  A coesão textual.  São Paulo: Contexto, 2001.
+6. LIBERATO, Yara; FULGÊNCIO, Lúcia.   É possível facilitar a leitura: um guia para escrever claro.  São Paulo: Contexto, 2007.
+7. MACHADO, A.R (coord.); LOUSADA, E.; ABREU-TARDELLI, L. S.  Resumo.  São Paulo: Parábola Editorial, 2004.
+8. ______.   Resenha.  São Paulo: Parábola Editorial, 2004.
+9. MARCUSCHI, Luiz Antônio.  Da fala para a escrita: atividades de retextualização.  São Paulo: Cortez, 2000.
+10. SERAFINI, Maria José.    Como escrever textos. 5.ed. São Paulo: Globo, 1992.</t>
   </si>
 </sst>
 </file>
@@ -473,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -598,85 +623,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
